--- a/Documentos/buenaFe/Lista Buena Fe Tenis.xlsx
+++ b/Documentos/buenaFe/Lista Buena Fe Tenis.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D123FF-A3CA-4395-AE70-00617525C600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBCC2758-5DE5-41F4-BAE1-85D2BDD989DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>"COPA CORRIENTES DIVERSA"</t>
   </si>
@@ -71,46 +78,20 @@
     <t>LISTADO DE BUENA FE CUERPO TÉCNICO</t>
   </si>
   <si>
-    <t xml:space="preserve">(*) EN CASO LLUEVA, LOS PARTIDOS DE LA CANCHA DESCUBIERTA PASARÍAN A LA CUBIERTA, EXTENDIÉNDOSE O MODIFICANDÓSE </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EL CRONOGRAMA (**) MÍNIMO DE </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Merriweather"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Merriweather"/>
-      </rPr>
-      <t xml:space="preserve"> PERSONAS PARA INSCRIBIRSE. EL D. T. DEBE ESTAR DENTRO DEL LISTADO DE BUENA FE</t>
-    </r>
-  </si>
-  <si>
     <t>Les presentes en este listado -jugadores- se encuentran aptos para realizar actividad física acorde a la intensidad</t>
   </si>
   <si>
     <t>MÉDICO</t>
   </si>
   <si>
-    <t>Tenis</t>
+    <t>PADEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,13 +105,79 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Merriweather"/>
+    </font>
+    <font>
       <b/>
-      <sz val="16"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Merriweather"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Merriweather"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Adobe gothic std b"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Merriweather"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Merriweather"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -145,84 +192,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Merriweather"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Merriweather"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Merriweather"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Merriweather"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color rgb="FF000000"/>
-      <name val="Merriweather"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Adobe gothic std b"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Merriweather"/>
     </font>
@@ -236,26 +211,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor rgb="FFB4C6E7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -272,12 +235,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -286,25 +261,23 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -312,7 +285,9 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -327,17 +302,28 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -350,9 +336,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -378,15 +362,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -395,9 +379,37 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -415,13 +427,24 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -430,68 +453,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,223 +475,185 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -831,8 +768,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4809459" y="164644"/>
-          <a:ext cx="958399" cy="1264105"/>
+          <a:off x="5923884" y="183694"/>
+          <a:ext cx="1453699" cy="1549855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -844,15 +781,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>420085</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>113579</xdr:rowOff>
+      <xdr:colOff>343885</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>132629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -875,8 +812,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3390900" y="7038975"/>
-          <a:ext cx="877285" cy="199304"/>
+          <a:off x="2562225" y="8058150"/>
+          <a:ext cx="2572735" cy="475529"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -888,22 +825,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:colOff>1076325</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>95248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 7">
+        <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAC7E2E8-71EE-182C-AE43-5B77CC67B0C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2168F70D-3348-4F0F-BDF7-28F8EA91AA60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -925,8 +862,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371475" y="209550"/>
-          <a:ext cx="1571625" cy="1571625"/>
+          <a:off x="276225" y="161923"/>
+          <a:ext cx="1533525" cy="1533525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -939,7 +876,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="B18:F33" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="B18:F22" headerRowDxfId="2">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Orden" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="APELLIDOS" dataDxfId="0"/>
@@ -952,9 +889,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -992,9 +929,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1027,9 +964,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1062,9 +1016,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1244,1049 +1215,957 @@
   <dimension ref="A1:H235"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="3.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21" style="5" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="65"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="62"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="69" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="7"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="7"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="69">
+      <c r="A5" s="6"/>
+      <c r="B5" s="62">
         <v>2024</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="7"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="74" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="66" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="58" t="s">
+      <c r="C11" s="61"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="66" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="56" t="s">
+      <c r="C13" s="61"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="66" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="51" t="s">
+      <c r="C15" s="61"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="7"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="41" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="36"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="35">
+      <c r="A19" s="6"/>
+      <c r="B19" s="34">
         <v>1</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="7"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="26">
+      <c r="A20" s="6"/>
+      <c r="B20" s="38">
         <v>2</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="7"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="26">
-        <v>3</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="43"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="26">
-        <v>4</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="46">
+        <v>1</v>
+      </c>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="26">
-        <v>5</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="26">
-        <v>6</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="26">
-        <v>7</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="7"/>
+      <c r="A25" s="6"/>
+      <c r="E25" s="52"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="26">
-        <v>8</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="7"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="52"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="26">
-        <v>9</v>
-      </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="7"/>
+      <c r="A27" s="6"/>
+      <c r="E27" s="52"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="26">
-        <v>10</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="7"/>
+      <c r="A28" s="6"/>
+      <c r="E28" s="52"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="17">
-        <v>11</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="7"/>
+      <c r="A29" s="6"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="26">
-        <v>12</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="7"/>
+      <c r="A30" s="6"/>
+      <c r="E30" s="55"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="7"/>
+      <c r="A31" s="6"/>
+      <c r="E31" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="21">
-        <v>1</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="7"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="17">
-        <v>2</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="7"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="7"/>
+      <c r="A34" s="6"/>
+      <c r="E34" s="52"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="7"/>
+      <c r="A35" s="6"/>
+      <c r="E35" s="52"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="E36" s="2"/>
-      <c r="G36" s="7"/>
+      <c r="A36" s="6"/>
+      <c r="E36" s="52"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="G37" s="7"/>
+      <c r="A37" s="53"/>
+      <c r="E37" s="52"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A38" s="6"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="7"/>
+      <c r="A38" s="53"/>
+      <c r="E38" s="52"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A39" s="6"/>
-      <c r="E39" s="2"/>
-      <c r="G39" s="7"/>
+      <c r="A39" s="53"/>
+      <c r="E39" s="52"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A40" s="6"/>
-      <c r="G40" s="7"/>
+      <c r="A40" s="53"/>
+      <c r="E40" s="52"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A41" s="6"/>
-      <c r="E41" s="9"/>
-      <c r="G41" s="7"/>
+      <c r="A41" s="53"/>
+      <c r="E41" s="52"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A42" s="6"/>
-      <c r="E42" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" s="7"/>
+      <c r="A42" s="53"/>
+      <c r="E42" s="52"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A43" s="6"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="7"/>
+      <c r="A43" s="53"/>
+      <c r="E43" s="52"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" ht="34.5" customHeight="1">
-      <c r="A44" s="6"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="5"/>
+      <c r="A44" s="53"/>
+      <c r="E44" s="52"/>
+      <c r="G44" s="57"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A45" s="4"/>
-      <c r="E45" s="2"/>
-      <c r="G45" s="3"/>
+      <c r="A45" s="58"/>
+      <c r="E45" s="52"/>
+      <c r="G45" s="59"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1">
-      <c r="E46" s="2"/>
+      <c r="E46" s="52"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1">
-      <c r="E47" s="2"/>
+      <c r="E47" s="52"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1">
-      <c r="E48" s="2"/>
+      <c r="E48" s="52"/>
     </row>
     <row r="49" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E49" s="2"/>
+      <c r="E49" s="52"/>
     </row>
     <row r="50" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E50" s="2"/>
+      <c r="E50" s="52"/>
     </row>
     <row r="51" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E51" s="2"/>
+      <c r="E51" s="52"/>
     </row>
     <row r="52" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E52" s="2"/>
+      <c r="E52" s="52"/>
     </row>
     <row r="53" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E53" s="2"/>
+      <c r="E53" s="52"/>
     </row>
     <row r="54" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E54" s="2"/>
+      <c r="E54" s="52"/>
     </row>
     <row r="55" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E55" s="2"/>
+      <c r="E55" s="52"/>
     </row>
     <row r="56" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E56" s="2"/>
+      <c r="E56" s="52"/>
     </row>
     <row r="57" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E57" s="2"/>
+      <c r="E57" s="52"/>
     </row>
     <row r="58" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E58" s="2"/>
+      <c r="E58" s="52"/>
     </row>
     <row r="59" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E59" s="2"/>
+      <c r="E59" s="52"/>
     </row>
     <row r="60" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E60" s="2"/>
+      <c r="E60" s="52"/>
     </row>
     <row r="61" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E61" s="2"/>
+      <c r="E61" s="52"/>
     </row>
     <row r="62" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E62" s="2"/>
+      <c r="E62" s="52"/>
     </row>
     <row r="63" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E63" s="2"/>
+      <c r="E63" s="52"/>
     </row>
     <row r="64" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E64" s="2"/>
+      <c r="E64" s="52"/>
     </row>
     <row r="65" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E65" s="2"/>
+      <c r="E65" s="52"/>
     </row>
     <row r="66" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E66" s="2"/>
+      <c r="E66" s="52"/>
     </row>
     <row r="67" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E67" s="2"/>
+      <c r="E67" s="52"/>
     </row>
     <row r="68" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E68" s="2"/>
+      <c r="E68" s="52"/>
     </row>
     <row r="69" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E69" s="2"/>
+      <c r="E69" s="52"/>
     </row>
     <row r="70" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E70" s="2"/>
+      <c r="E70" s="52"/>
     </row>
     <row r="71" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E71" s="2"/>
+      <c r="E71" s="52"/>
     </row>
     <row r="72" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E72" s="2"/>
+      <c r="E72" s="52"/>
     </row>
     <row r="73" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E73" s="2"/>
+      <c r="E73" s="52"/>
     </row>
     <row r="74" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E74" s="2"/>
+      <c r="E74" s="52"/>
     </row>
     <row r="75" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E75" s="2"/>
+      <c r="E75" s="52"/>
     </row>
     <row r="76" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E76" s="2"/>
+      <c r="E76" s="52"/>
     </row>
     <row r="77" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E77" s="2"/>
+      <c r="E77" s="52"/>
     </row>
     <row r="78" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E78" s="2"/>
+      <c r="E78" s="52"/>
     </row>
     <row r="79" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E79" s="2"/>
+      <c r="E79" s="52"/>
     </row>
     <row r="80" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E80" s="2"/>
+      <c r="E80" s="52"/>
     </row>
     <row r="81" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E81" s="2"/>
+      <c r="E81" s="52"/>
     </row>
     <row r="82" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E82" s="2"/>
+      <c r="E82" s="52"/>
     </row>
     <row r="83" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E83" s="2"/>
+      <c r="E83" s="52"/>
     </row>
     <row r="84" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E84" s="2"/>
+      <c r="E84" s="52"/>
     </row>
     <row r="85" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E85" s="2"/>
+      <c r="E85" s="52"/>
     </row>
     <row r="86" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E86" s="2"/>
+      <c r="E86" s="52"/>
     </row>
     <row r="87" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E87" s="2"/>
+      <c r="E87" s="52"/>
     </row>
     <row r="88" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E88" s="2"/>
+      <c r="E88" s="52"/>
     </row>
     <row r="89" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E89" s="2"/>
+      <c r="E89" s="52"/>
     </row>
     <row r="90" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E90" s="2"/>
+      <c r="E90" s="52"/>
     </row>
     <row r="91" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E91" s="2"/>
+      <c r="E91" s="52"/>
     </row>
     <row r="92" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E92" s="2"/>
+      <c r="E92" s="52"/>
     </row>
     <row r="93" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E93" s="2"/>
+      <c r="E93" s="52"/>
     </row>
     <row r="94" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E94" s="2"/>
+      <c r="E94" s="52"/>
     </row>
     <row r="95" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E95" s="2"/>
+      <c r="E95" s="52"/>
     </row>
     <row r="96" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E96" s="2"/>
+      <c r="E96" s="52"/>
     </row>
     <row r="97" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E97" s="2"/>
+      <c r="E97" s="52"/>
     </row>
     <row r="98" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E98" s="2"/>
+      <c r="E98" s="52"/>
     </row>
     <row r="99" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E99" s="2"/>
+      <c r="E99" s="52"/>
     </row>
     <row r="100" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E100" s="2"/>
+      <c r="E100" s="52"/>
     </row>
     <row r="101" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E101" s="2"/>
+      <c r="E101" s="52"/>
     </row>
     <row r="102" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E102" s="2"/>
+      <c r="E102" s="52"/>
     </row>
     <row r="103" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E103" s="2"/>
+      <c r="E103" s="52"/>
     </row>
     <row r="104" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E104" s="2"/>
+      <c r="E104" s="52"/>
     </row>
     <row r="105" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E105" s="2"/>
+      <c r="E105" s="52"/>
     </row>
     <row r="106" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E106" s="2"/>
+      <c r="E106" s="52"/>
     </row>
     <row r="107" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E107" s="2"/>
+      <c r="E107" s="52"/>
     </row>
     <row r="108" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E108" s="2"/>
+      <c r="E108" s="52"/>
     </row>
     <row r="109" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E109" s="2"/>
+      <c r="E109" s="52"/>
     </row>
     <row r="110" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E110" s="2"/>
+      <c r="E110" s="52"/>
     </row>
     <row r="111" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E111" s="2"/>
+      <c r="E111" s="52"/>
     </row>
     <row r="112" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E112" s="2"/>
+      <c r="E112" s="52"/>
     </row>
     <row r="113" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E113" s="2"/>
+      <c r="E113" s="52"/>
     </row>
     <row r="114" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E114" s="2"/>
+      <c r="E114" s="52"/>
     </row>
     <row r="115" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E115" s="2"/>
+      <c r="E115" s="52"/>
     </row>
     <row r="116" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E116" s="2"/>
+      <c r="E116" s="52"/>
     </row>
     <row r="117" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E117" s="2"/>
+      <c r="E117" s="52"/>
     </row>
     <row r="118" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E118" s="2"/>
+      <c r="E118" s="52"/>
     </row>
     <row r="119" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E119" s="2"/>
+      <c r="E119" s="52"/>
     </row>
     <row r="120" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E120" s="2"/>
+      <c r="E120" s="52"/>
     </row>
     <row r="121" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E121" s="2"/>
+      <c r="E121" s="52"/>
     </row>
     <row r="122" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E122" s="2"/>
+      <c r="E122" s="52"/>
     </row>
     <row r="123" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E123" s="2"/>
+      <c r="E123" s="52"/>
     </row>
     <row r="124" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E124" s="2"/>
+      <c r="E124" s="52"/>
     </row>
     <row r="125" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E125" s="2"/>
+      <c r="E125" s="52"/>
     </row>
     <row r="126" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E126" s="2"/>
+      <c r="E126" s="52"/>
     </row>
     <row r="127" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E127" s="2"/>
+      <c r="E127" s="52"/>
     </row>
     <row r="128" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E128" s="2"/>
+      <c r="E128" s="52"/>
     </row>
     <row r="129" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E129" s="2"/>
+      <c r="E129" s="52"/>
     </row>
     <row r="130" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E130" s="2"/>
+      <c r="E130" s="52"/>
     </row>
     <row r="131" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E131" s="2"/>
+      <c r="E131" s="52"/>
     </row>
     <row r="132" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E132" s="2"/>
+      <c r="E132" s="52"/>
     </row>
     <row r="133" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E133" s="2"/>
+      <c r="E133" s="52"/>
     </row>
     <row r="134" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E134" s="2"/>
+      <c r="E134" s="52"/>
     </row>
     <row r="135" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E135" s="2"/>
+      <c r="E135" s="52"/>
     </row>
     <row r="136" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E136" s="2"/>
+      <c r="E136" s="52"/>
     </row>
     <row r="137" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E137" s="2"/>
+      <c r="E137" s="52"/>
     </row>
     <row r="138" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E138" s="2"/>
+      <c r="E138" s="52"/>
     </row>
     <row r="139" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E139" s="2"/>
+      <c r="E139" s="52"/>
     </row>
     <row r="140" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E140" s="2"/>
+      <c r="E140" s="52"/>
     </row>
     <row r="141" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E141" s="2"/>
+      <c r="E141" s="52"/>
     </row>
     <row r="142" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E142" s="2"/>
+      <c r="E142" s="52"/>
     </row>
     <row r="143" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E143" s="2"/>
+      <c r="E143" s="52"/>
     </row>
     <row r="144" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E144" s="2"/>
+      <c r="E144" s="52"/>
     </row>
     <row r="145" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E145" s="2"/>
+      <c r="E145" s="52"/>
     </row>
     <row r="146" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E146" s="2"/>
+      <c r="E146" s="52"/>
     </row>
     <row r="147" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E147" s="2"/>
+      <c r="E147" s="52"/>
     </row>
     <row r="148" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E148" s="2"/>
+      <c r="E148" s="52"/>
     </row>
     <row r="149" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E149" s="2"/>
+      <c r="E149" s="52"/>
     </row>
     <row r="150" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E150" s="2"/>
+      <c r="E150" s="52"/>
     </row>
     <row r="151" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E151" s="2"/>
+      <c r="E151" s="52"/>
     </row>
     <row r="152" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E152" s="2"/>
+      <c r="E152" s="52"/>
     </row>
     <row r="153" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E153" s="2"/>
+      <c r="E153" s="52"/>
     </row>
     <row r="154" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E154" s="2"/>
+      <c r="E154" s="52"/>
     </row>
     <row r="155" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E155" s="2"/>
+      <c r="E155" s="52"/>
     </row>
     <row r="156" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E156" s="2"/>
+      <c r="E156" s="52"/>
     </row>
     <row r="157" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E157" s="2"/>
+      <c r="E157" s="52"/>
     </row>
     <row r="158" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E158" s="2"/>
+      <c r="E158" s="52"/>
     </row>
     <row r="159" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E159" s="2"/>
+      <c r="E159" s="52"/>
     </row>
     <row r="160" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E160" s="2"/>
+      <c r="E160" s="52"/>
     </row>
     <row r="161" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E161" s="2"/>
+      <c r="E161" s="52"/>
     </row>
     <row r="162" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E162" s="2"/>
+      <c r="E162" s="52"/>
     </row>
     <row r="163" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E163" s="2"/>
+      <c r="E163" s="52"/>
     </row>
     <row r="164" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E164" s="2"/>
+      <c r="E164" s="52"/>
     </row>
     <row r="165" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E165" s="2"/>
+      <c r="E165" s="52"/>
     </row>
     <row r="166" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E166" s="2"/>
+      <c r="E166" s="52"/>
     </row>
     <row r="167" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E167" s="2"/>
+      <c r="E167" s="52"/>
     </row>
     <row r="168" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E168" s="2"/>
+      <c r="E168" s="52"/>
     </row>
     <row r="169" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E169" s="2"/>
+      <c r="E169" s="52"/>
     </row>
     <row r="170" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E170" s="2"/>
+      <c r="E170" s="52"/>
     </row>
     <row r="171" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E171" s="2"/>
+      <c r="E171" s="52"/>
     </row>
     <row r="172" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E172" s="2"/>
+      <c r="E172" s="52"/>
     </row>
     <row r="173" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E173" s="2"/>
+      <c r="E173" s="52"/>
     </row>
     <row r="174" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E174" s="2"/>
+      <c r="E174" s="52"/>
     </row>
     <row r="175" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E175" s="2"/>
+      <c r="E175" s="52"/>
     </row>
     <row r="176" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E176" s="2"/>
+      <c r="E176" s="52"/>
     </row>
     <row r="177" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E177" s="2"/>
+      <c r="E177" s="52"/>
     </row>
     <row r="178" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E178" s="2"/>
+      <c r="E178" s="52"/>
     </row>
     <row r="179" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E179" s="2"/>
+      <c r="E179" s="52"/>
     </row>
     <row r="180" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E180" s="2"/>
+      <c r="E180" s="52"/>
     </row>
     <row r="181" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E181" s="2"/>
+      <c r="E181" s="52"/>
     </row>
     <row r="182" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E182" s="2"/>
+      <c r="E182" s="52"/>
     </row>
     <row r="183" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E183" s="2"/>
+      <c r="E183" s="52"/>
     </row>
     <row r="184" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E184" s="2"/>
+      <c r="E184" s="52"/>
     </row>
     <row r="185" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E185" s="2"/>
+      <c r="E185" s="52"/>
     </row>
     <row r="186" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E186" s="2"/>
+      <c r="E186" s="52"/>
     </row>
     <row r="187" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E187" s="2"/>
+      <c r="E187" s="52"/>
     </row>
     <row r="188" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E188" s="2"/>
+      <c r="E188" s="52"/>
     </row>
     <row r="189" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E189" s="2"/>
+      <c r="E189" s="52"/>
     </row>
     <row r="190" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E190" s="2"/>
+      <c r="E190" s="52"/>
     </row>
     <row r="191" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E191" s="2"/>
+      <c r="E191" s="52"/>
     </row>
     <row r="192" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E192" s="2"/>
+      <c r="E192" s="52"/>
     </row>
     <row r="193" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E193" s="2"/>
+      <c r="E193" s="52"/>
     </row>
     <row r="194" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E194" s="2"/>
+      <c r="E194" s="52"/>
     </row>
     <row r="195" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E195" s="2"/>
+      <c r="E195" s="52"/>
     </row>
     <row r="196" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E196" s="2"/>
+      <c r="E196" s="52"/>
     </row>
     <row r="197" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E197" s="2"/>
+      <c r="E197" s="52"/>
     </row>
     <row r="198" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E198" s="2"/>
+      <c r="E198" s="52"/>
     </row>
     <row r="199" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E199" s="2"/>
+      <c r="E199" s="52"/>
     </row>
     <row r="200" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E200" s="2"/>
+      <c r="E200" s="52"/>
     </row>
     <row r="201" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E201" s="2"/>
+      <c r="E201" s="52"/>
     </row>
     <row r="202" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E202" s="2"/>
+      <c r="E202" s="52"/>
     </row>
     <row r="203" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E203" s="2"/>
+      <c r="E203" s="52"/>
     </row>
     <row r="204" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E204" s="2"/>
+      <c r="E204" s="52"/>
     </row>
     <row r="205" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E205" s="2"/>
+      <c r="E205" s="52"/>
     </row>
     <row r="206" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E206" s="2"/>
+      <c r="E206" s="52"/>
     </row>
     <row r="207" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E207" s="2"/>
+      <c r="E207" s="52"/>
     </row>
     <row r="208" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E208" s="2"/>
+      <c r="E208" s="52"/>
     </row>
     <row r="209" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E209" s="2"/>
+      <c r="E209" s="52"/>
     </row>
     <row r="210" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E210" s="2"/>
+      <c r="E210" s="52"/>
     </row>
     <row r="211" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E211" s="2"/>
+      <c r="E211" s="52"/>
     </row>
     <row r="212" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E212" s="2"/>
+      <c r="E212" s="52"/>
     </row>
     <row r="213" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E213" s="2"/>
+      <c r="E213" s="52"/>
     </row>
     <row r="214" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E214" s="2"/>
+      <c r="E214" s="52"/>
     </row>
     <row r="215" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E215" s="2"/>
+      <c r="E215" s="52"/>
     </row>
     <row r="216" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E216" s="2"/>
+      <c r="E216" s="52"/>
     </row>
     <row r="217" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E217" s="2"/>
+      <c r="E217" s="52"/>
     </row>
     <row r="218" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E218" s="2"/>
+      <c r="E218" s="52"/>
     </row>
     <row r="219" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E219" s="2"/>
+      <c r="E219" s="52"/>
     </row>
     <row r="220" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E220" s="2"/>
+      <c r="E220" s="52"/>
     </row>
     <row r="221" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E221" s="2"/>
+      <c r="E221" s="52"/>
     </row>
     <row r="222" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E222" s="2"/>
+      <c r="E222" s="52"/>
     </row>
     <row r="223" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E223" s="2"/>
-    </row>
-    <row r="224" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E224" s="2"/>
-    </row>
-    <row r="225" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E225" s="2"/>
-    </row>
-    <row r="226" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E226" s="2"/>
-    </row>
-    <row r="227" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E227" s="2"/>
-    </row>
-    <row r="228" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E228" s="2"/>
-    </row>
-    <row r="229" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E229" s="2"/>
-    </row>
-    <row r="230" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E230" s="2"/>
-    </row>
-    <row r="231" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E231" s="2"/>
-    </row>
-    <row r="232" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E232" s="2"/>
-    </row>
-    <row r="233" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E233" s="2"/>
-    </row>
-    <row r="234" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E234" s="2"/>
-    </row>
-    <row r="235" spans="5:5" ht="15.75" customHeight="1"/>
+      <c r="E223" s="52"/>
+    </row>
+    <row r="224" spans="5:5" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B3:F4"/>
+    <mergeCell ref="B5:F6"/>
     <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B5:F6"/>
-    <mergeCell ref="B43:F43"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="B34:F34"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="5" scale="77" orientation="portrait" r:id="rId1"/>
